--- a/documentacion/presentacion/GraficosTFG.xlsx
+++ b/documentacion/presentacion/GraficosTFG.xlsx
@@ -8,26 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejomaf/Documents/GitHub/Inventarium/documentacion/presentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF854078-F7AA-8D4C-921F-BEC79A1D0A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C51F8B-8D86-624E-92A2-9792B4A9A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{814A5DF1-5258-AD4A-A9F1-514887265B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$B$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$C$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Hoja1!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Hoja1!$B$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Hoja1!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Hoja1!$C$2</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Hoja1!$C$3:$C$9</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Estimación de tiempo</t>
   </si>
@@ -76,6 +65,24 @@
   </si>
   <si>
     <t>Inicial (horas)</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Duración días</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
+  </si>
+  <si>
+    <t>Inicio del proyecto</t>
+  </si>
+  <si>
+    <t>Fin del proyecto</t>
+  </si>
+  <si>
+    <t>Tiempo realización</t>
   </si>
 </sst>
 </file>
@@ -135,14 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,7 +258,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
+              <c:f>Hoja1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -321,7 +333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$9</c:f>
+              <c:f>Hoja1!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -357,7 +369,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$2</c:f>
+              <c:f>Hoja1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -432,7 +444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$9</c:f>
+              <c:f>Hoja1!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -658,7 +670,1485 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Estimación de tiempo inicial y real</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$16:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Estimación de tiempo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fecha inicio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$A$18:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Reuniones iniciales con los clientes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Planificación y elaboración del desarrollo del proyecto</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Preparación del entorno de trabajo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Construcción de la aplicación</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Testeo, comprobación de la aplicación y comprobación de errores</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$18:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03C2-D24B-9188-D78B9A54AEB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$16:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Estimación de tiempo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duración días</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-03C2-D24B-9188-D78B9A54AEB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$A$18:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Reuniones iniciales con los clientes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Planificación y elaboración del desarrollo del proyecto</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Preparación del entorno de trabajo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Construcción de la aplicación</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Testeo, comprobación de la aplicación y comprobación de errores</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03C2-D24B-9188-D78B9A54AEB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="650424080"/>
+        <c:axId val="650426928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650424080"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650426928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650426928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44584"/>
+          <c:min val="44440"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650424080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Estimación de tiempo inicial y real</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$16:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Estimación de tiempo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fecha inicio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$A$37:$B$44</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Reuniones iniciales con los clientes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Planificación y elaboración del desarrollo del proyecto</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Construcción de la aplicación</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testeo, comprobación de la aplicación y comprobación de errores</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$37:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A985-BA47-BA86-0530BF9F31E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$16:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Estimación de tiempo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duración días</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-A985-BA47-BA86-0530BF9F31E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja1!$A$37:$B$44</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Inicial (horas)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Real (horas)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Reuniones iniciales con los clientes</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Planificación y elaboración del desarrollo del proyecto</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Construcción de la aplicación</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testeo, comprobación de la aplicación y comprobación de errores</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-A985-BA47-BA86-0530BF9F31E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="650424080"/>
+        <c:axId val="650426928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650424080"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650426928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650426928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44584"/>
+          <c:min val="44440"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650424080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1223,17 +2713,1027 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>111902</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>44938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>554182</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>132683</xdr:rowOff>
@@ -1256,6 +3756,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>460587</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>240454</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90442427-233A-DD42-B6D2-4672749657FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>740833</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>141636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789F6629-54B0-9645-A975-2D5C261F7008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1561,107 +4135,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE017B0-37CB-B041-BC54-281E098380EB}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="84" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3">
         <v>30</v>
       </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2"/>
+      <c r="C4">
         <v>80</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2"/>
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2"/>
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2"/>
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f>SUM(B3:B7)</f>
-        <v>300</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="2">
         <f>SUM(C3:C7)</f>
+        <v>300</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(D3:D7)</f>
         <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" ref="E18:E27" si="0">C18+D18</f>
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D21">
+        <v>144</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4">
+        <f>E18</f>
+        <v>44450</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <f>E19</f>
+        <v>44454</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4">
+        <f>E22</f>
+        <v>44465</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>44505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <f>E23</f>
+        <v>44484</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4">
+        <f>E24</f>
+        <v>44505</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <f>E25</f>
+        <v>44554</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4">
+        <f>C19</f>
+        <v>44440</v>
+      </c>
+      <c r="C30" s="5">
+        <f>B30</f>
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4">
+        <f>E27</f>
+        <v>44584</v>
+      </c>
+      <c r="C31" s="5">
+        <f>B31</f>
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f>B31-B30</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" ref="E37:E44" si="1">C37+D37</f>
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D40">
+        <v>144</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4">
+        <f>E37</f>
+        <v>44450</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4">
+        <f>E38</f>
+        <v>44454</v>
+      </c>
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
+        <f>E41</f>
+        <v>44490</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="1"/>
+        <v>44505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <f>E42</f>
+        <v>44524</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="1"/>
+        <v>44554</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
